--- a/MicroGrids/Results/Renewable_Source_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Source_Data.xlsx
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>264.0196180492853</v>
+        <v>260.1832016115145</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>264.0196180492853</v>
+        <v>402.5601969118304</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>264.0196180492853</v>
+        <v>547.397945249538</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>66004.90451232133</v>
+        <v>65045.80040287862</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>66004.90451232131</v>
+        <v>100640.0492279576</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66004.90451232131</v>
+        <v>136849.4863123845</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>99007.35676848199</v>
+        <v>97568.70060431794</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.131628207280301e-11</v>
+        <v>53391.37323761846</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>54314.15562664033</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1485.11035152723</v>
+        <v>1463.530509064769</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1485.11035152723</v>
+        <v>2264.401107629046</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1485.11035152723</v>
+        <v>3079.113442028652</v>
       </c>
     </row>
   </sheetData>
